--- a/StructureDefinition-hiv-patient.xlsx
+++ b/StructureDefinition-hiv-patient.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://example.com/fhir/example/StructureDefinition/hiv-patient</t>
+    <t>http://jembi.org/fhir/hiv-casereporting/StructureDefinition/hiv-patient</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-15T14:41:26+00:00</t>
+    <t>2022-11-24T14:29:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -448,7 +448,7 @@
     <t>keyPopulation</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://example.com/fhir/example/StructureDefinition/key-population}
+    <t xml:space="preserve">Extension {http://jembi.org/fhir/hiv-casereporting/StructureDefinition/key-population}
 </t>
   </si>
   <si>
@@ -1371,7 +1371,7 @@
     <t>Most, if not all systems capture it.</t>
   </si>
   <si>
-    <t>http://example.com/fhir/example/ValueSet/vs-marital-status</t>
+    <t>http://jembi.org/fhir/hiv-casereporting/ValueSet/vs-marital-status</t>
   </si>
   <si>
     <t>player[classCode=PSN]/maritalStatusCode</t>
@@ -2137,7 +2137,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="56.25390625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="60.734375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-hiv-patient.xlsx
+++ b/StructureDefinition-hiv-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-24T14:29:27+00:00</t>
+    <t>2022-11-30T18:31:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
